--- a/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -254,6 +254,33 @@
     <t>H</t>
   </si>
   <si>
+    <t>Of Course Unit 1</t>
+  </si>
+  <si>
+    <t>Spreekvaardigheid</t>
+  </si>
+  <si>
+    <t>schrijfvaardigheid</t>
+  </si>
+  <si>
+    <t>Examenvocabulaire</t>
+  </si>
+  <si>
+    <t>Leesvaardigheid</t>
+  </si>
+  <si>
+    <t>Luistervaardigheid</t>
+  </si>
+  <si>
+    <t>Schrijfvaardigheid</t>
+  </si>
+  <si>
+    <t>Literatuur</t>
+  </si>
+  <si>
+    <t>Kijk- en luistervaardigheid</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -278,16 +305,7 @@
     <t>Literatuur / Presentatie over 3 Engelse literaire werken.</t>
   </si>
   <si>
-    <t>C2, E1, E2</t>
-  </si>
-  <si>
     <t>Schrijfvaardigheid: Informele brief.</t>
-  </si>
-  <si>
-    <t>D1, D2, F</t>
-  </si>
-  <si>
-    <t>Leesvaardigheid</t>
   </si>
   <si>
     <t>Spreekvaardigheid d.m.v. spreekopdrachten door het jaar heen.</t>
@@ -296,25 +314,13 @@
     <t>Literatuurgeschiedenis. Schriftelijke toets (maximaal 9 punten) en een klassikale opdracht (maximaal 1 punt).</t>
   </si>
   <si>
-    <t>E2,3</t>
-  </si>
-  <si>
     <t>Essay schrijven</t>
-  </si>
-  <si>
-    <t>D1,2, F</t>
   </si>
   <si>
     <t>Kijk- en luistertoets</t>
   </si>
   <si>
-    <t>B, F</t>
-  </si>
-  <si>
     <t>Spreekvaardigheidstoets</t>
-  </si>
-  <si>
-    <t>C1, C2, F</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1337,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1339,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I6" s="27">
         <v>2</v>
@@ -1358,9 +1364,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1375,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1394,9 +1398,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1411,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -1430,9 +1432,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1448,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I9" s="27">
         <v>3</v>
@@ -1467,9 +1467,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1477,7 +1475,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1485,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -1502,9 +1500,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -2235,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2349,7 +2345,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2504,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2523,9 +2519,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2534,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2553,9 +2547,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2564,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2585,9 +2577,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>83</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2596,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I21" s="27">
         <v>2</v>
@@ -2617,9 +2607,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2628,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I22" s="27">
         <v>3</v>
@@ -2649,9 +2637,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>75</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2660,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I23" s="27">
         <v>2</v>
@@ -2677,9 +2663,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32">
-        <v>0</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -3153,7 +3137,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3267,7 +3251,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3627,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3646,9 +3630,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3657,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3676,9 +3658,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3687,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3706,9 +3686,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3717,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3736,9 +3714,7 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
@@ -4155,7 +4131,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5110,7 +5086,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5926,7 +5902,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6742,7 +6718,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7458,22 +7434,28 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -7486,22 +7468,30 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>10</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -7514,22 +7504,28 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -7543,22 +7539,28 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>30</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -7568,26 +7570,32 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -7601,22 +7609,28 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>2</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -8434,7 +8448,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8585,88 +8599,112 @@
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27">
+        <v>20</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>2</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -9290,7 +9328,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633287037</v>
+        <v>44335.808414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
@@ -1339,7 +1339,9 @@
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>49</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1373,7 +1375,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1407,7 +1411,9 @@
       <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>51</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1442,7 +1448,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>52</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -1475,9 +1483,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>53</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1551,7 +1561,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>22</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1571,9 +1583,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1765,7 +1775,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>23</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1970,7 +1982,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>24</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2345,7 +2359,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2417,7 +2431,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2494,7 +2510,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>54</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2522,7 +2540,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>55</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2550,7 +2570,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>56</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -2580,7 +2602,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>57</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2610,7 +2634,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>58</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2640,7 +2666,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>59</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2669,7 +2697,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>26</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2682,9 +2712,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2876,7 +2904,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>27</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3251,7 +3281,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3323,7 +3353,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>28</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3535,7 +3567,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>29</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3605,7 +3639,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>60</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3633,7 +3669,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>61</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3661,7 +3699,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>62</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>2</v>
@@ -3689,7 +3729,9 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>63</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
         <v>3</v>
@@ -3764,7 +3806,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>30</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3777,9 +3821,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4131,7 +4173,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5086,7 +5128,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5902,7 +5944,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6718,7 +6760,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7432,7 +7474,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>39</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7466,7 +7510,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7502,7 +7548,9 @@
       <c r="B8" s="2">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>41</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7537,7 +7585,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>42</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -7570,9 +7620,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7607,7 +7659,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>44</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>2</v>
@@ -7654,7 +7708,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7674,9 +7730,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7868,7 +7922,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8448,7 +8504,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8520,7 +8576,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8597,7 +8655,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>45</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8625,7 +8685,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>46</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8653,7 +8715,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>47</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8681,7 +8745,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>48</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -8756,7 +8822,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>21</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8769,9 +8837,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9328,7 +9394,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808414352</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,36 +252,87 @@
     <t>EN</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                             Gespreksvaardigheid</t>
+  </si>
+  <si>
+    <t>MVT/K/2, MVT/K/6</t>
+  </si>
+  <si>
+    <t>Schrijfvaardigheid</t>
+  </si>
+  <si>
+    <t>Woordenboek N-E</t>
+  </si>
+  <si>
+    <t>MVT/K/1, MVT/K/3, MVT/K/7</t>
+  </si>
+  <si>
+    <t>Luistervaardigheid</t>
+  </si>
+  <si>
+    <t>MVT/K/5</t>
+  </si>
+  <si>
+    <t>Spreekvaardigheid</t>
+  </si>
+  <si>
+    <t>MVT/V/4, MVT/K/3</t>
+  </si>
+  <si>
+    <t>Leesvaardigheid</t>
+  </si>
+  <si>
+    <t>Woordenboek E-N</t>
+  </si>
+  <si>
+    <t>MVT/K/4</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Of Course Unit 1</t>
   </si>
   <si>
-    <t>Spreekvaardigheid</t>
+    <t>C2</t>
   </si>
   <si>
     <t>schrijfvaardigheid</t>
   </si>
   <si>
+    <t xml:space="preserve">Woordenboek N-E </t>
+  </si>
+  <si>
     <t>Examenvocabulaire</t>
   </si>
   <si>
-    <t>Leesvaardigheid</t>
-  </si>
-  <si>
-    <t>Luistervaardigheid</t>
-  </si>
-  <si>
-    <t>Schrijfvaardigheid</t>
+    <t>D</t>
   </si>
   <si>
     <t>Literatuur</t>
   </si>
   <si>
+    <t>Reader met teksten en aantekeningen</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
     <t>Kijk- en luistervaardigheid</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Aantekeningen</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -305,22 +357,43 @@
     <t>Literatuur / Presentatie over 3 Engelse literaire werken.</t>
   </si>
   <si>
+    <t>C2, E1, E2</t>
+  </si>
+  <si>
     <t>Schrijfvaardigheid: Informele brief.</t>
   </si>
   <si>
+    <t>Tekstverwerker met spellingscontrole</t>
+  </si>
+  <si>
+    <t>D1, D2, F</t>
+  </si>
+  <si>
     <t>Spreekvaardigheid d.m.v. spreekopdrachten door het jaar heen.</t>
   </si>
   <si>
     <t>Literatuurgeschiedenis. Schriftelijke toets (maximaal 9 punten) en een klassikale opdracht (maximaal 1 punt).</t>
   </si>
   <si>
+    <t>E2,3</t>
+  </si>
+  <si>
     <t>Essay schrijven</t>
   </si>
   <si>
+    <t>D1,2, F</t>
+  </si>
+  <si>
     <t>Kijk- en luistertoets</t>
   </si>
   <si>
+    <t>B, F</t>
+  </si>
+  <si>
     <t>Spreekvaardigheidstoets</t>
+  </si>
+  <si>
+    <t>C1, C2, F</t>
   </si>
 </sst>
 </file>
@@ -1249,12 +1322,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1276,25 +1349,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EN leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1336,35 +1405,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2">
-        <v>49</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1372,35 +1431,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>50</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1408,35 +1457,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>51</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1446,34 +1485,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1483,32 +1514,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>53</v>
-      </c>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1556,17 +1581,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>22</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1581,7 +1604,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1598,7 +1621,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EN leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1775,12 +1798,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>23</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1805,7 +1826,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EN leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1982,12 +2003,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>24</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2061,44 +2080,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2162,7 +2143,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2193,7 +2174,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EN leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>EN leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2245,26 +2226,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D6" s="2">
+        <v>49</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2273,26 +2262,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2301,26 +2298,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2330,26 +2335,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>52</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -2359,26 +2372,32 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2">
+        <v>53</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -2426,17 +2445,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2451,7 +2470,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2468,7 +2487,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EN leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>EN leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2510,186 +2529,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>54</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>55</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>56</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>15</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>57</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>58</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="27">
-        <v>3</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>59</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="27">
-        <v>2</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2698,11 +2665,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2727,7 +2694,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EN leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>EN leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2905,11 +2872,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3042,6 +3009,936 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>EN leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>EN leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>15</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="27">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>26</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>EN leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>27</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3167,7 +4064,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3281,7 +4178,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3647,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3664,9 +4561,11 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3677,13 +4576,15 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="30"/>
+      <c r="K31" s="30" t="s">
+        <v>111</v>
+      </c>
       <c r="L31" s="27">
         <v>100</v>
       </c>
@@ -3694,9 +4595,11 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3707,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3726,7 +4629,9 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32"/>
+      <c r="P32" s="32" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2">
@@ -3737,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3756,7 +4661,9 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32"/>
+      <c r="P33" s="32" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
@@ -4173,7 +5080,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5128,7 +6035,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5944,7 +6851,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6568,12 +7475,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6595,6 +7502,925 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>EN leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>EN leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>10</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>70</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>5</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>17</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>EN leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6760,7 +8586,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7340,924 +9166,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EN leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>10</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>30</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>2</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>18</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EN leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>19</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EN leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8307,7 +9215,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8338,7 +9246,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EN leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>EN leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8390,26 +9298,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D6" s="2">
+        <v>39</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -8418,54 +9334,76 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>10</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -8475,26 +9413,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>30</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -8504,26 +9450,34 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -8535,24 +9489,32 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>44</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>2</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
+      <c r="O11" s="31">
+        <v>0</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -8571,17 +9533,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8596,7 +9558,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8613,7 +9575,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EN leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>EN leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8655,122 +9617,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>45</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>46</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>47</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>48</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>20</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -8823,11 +9753,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8852,7 +9782,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EN leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>EN leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9032,7 +9962,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9202,12 +10132,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9229,21 +10159,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>EN leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9285,7 +10219,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9311,7 +10247,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9337,7 +10275,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9365,7 +10305,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9394,7 +10334,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9461,15 +10401,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9484,7 +10426,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9501,7 +10443,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>EN leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9543,92 +10485,138 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>45</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>46</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>47</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>48</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="27">
+        <v>20</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>2</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -9678,10 +10666,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>21</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9706,7 +10696,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>EN leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9886,7 +10876,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9960,6 +10950,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2353,7 +2353,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3475,7 +3475,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4632,7 +4632,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5761,7 +5761,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6836,7 +6836,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2">
         <v>43</v>
@@ -7968,7 +7968,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9092,7 +9092,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10172,7 +10172,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808738426</v>
+        <v>44341.376111111</v>
       </c>
       <c r="D10" s="2">
         <v>53</v>
@@ -11290,7 +11290,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
+        <v>44342.629340278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2846,99 +2846,141 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>606</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>1</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>607</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>1</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>111</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>608</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>2</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>60</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>2</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>609</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K33" s="26"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="23">
+        <v>15</v>
+      </c>
       <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="27">
+        <v>2</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
@@ -3445,7 +3487,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
+        <v>44342.629340278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4729,7 +4771,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
+        <v>44342.629340278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4940,123 +4982,177 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>591</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>10</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>592</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>593</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>70</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>594</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>5</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>595</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
@@ -5804,7 +5900,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
+        <v>44342.629340278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6813,25 +6909,33 @@
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>600</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -6843,27 +6947,39 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>601</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>10</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
@@ -6873,25 +6989,35 @@
       <c r="B8" s="2">
         <v>185</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>602</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
@@ -6904,25 +7030,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>603</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>30</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
@@ -6933,27 +7067,35 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629340278</v>
+      </c>
+      <c r="D10" s="2">
+        <v>604</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
@@ -6966,25 +7108,33 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>605</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>2</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>50</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
+      <c r="O11" s="27">
+        <v>0</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
@@ -8049,7 +8199,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
+        <v>44342.629340278</v>
       </c>
       <c r="D10" s="2">
         <v>43</v>
@@ -8276,99 +8426,145 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>596</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>597</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>598</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>599</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="23">
+        <v>20</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>2</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -9143,7 +9339,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
+        <v>44342.629340278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10147,25 +10343,33 @@
       <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>616</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -10177,25 +10381,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>617</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
@@ -10207,25 +10419,33 @@
       <c r="B8" s="2">
         <v>186</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>618</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
@@ -10238,25 +10458,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>619</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
@@ -10267,27 +10495,33 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629340278</v>
+      </c>
+      <c r="D10" s="2">
+        <v>620</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
@@ -11379,7 +11613,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382094907</v>
+        <v>44342.629340278</v>
       </c>
       <c r="D10" s="2">
         <v>53</v>
@@ -11596,141 +11830,201 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>610</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
-      <c r="O18" s="27" t="s">
-        <v>5</v>
+      <c r="O18" s="27">
+        <v>0</v>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>611</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
-        <v>5</v>
+      <c r="O19" s="27">
+        <v>0</v>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>612</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>15</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>613</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>614</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="23">
+        <v>3</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>615</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="23">
+        <v>2</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="27" t="s">

--- a/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EN PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>Gespreksvaardigheid</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>MVT/K/2, MVT/K/6</t>
@@ -2292,7 +2295,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3018,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -3034,8 +3037,8 @@
         <v>11</v>
       </c>
       <c r="N18" s="46"/>
-      <c r="O18" s="31">
-        <v>0</v>
+      <c r="O18" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3108,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -3124,8 +3127,8 @@
         <v>11</v>
       </c>
       <c r="N19" s="46"/>
-      <c r="O19" s="31">
-        <v>0</v>
+      <c r="O19" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3198,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3217,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3292,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -3301,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21" s="45">
         <v>100</v>
@@ -3313,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3388,7 +3391,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -3407,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -3482,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -3497,7 +3500,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3750,10 +3753,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3825,14 +3828,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -3844,10 +3847,10 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3919,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3936,10 +3939,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4011,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -4028,10 +4031,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -4632,7 +4635,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4986,7 +4989,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.45119213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6013,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -6030,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6105,14 +6108,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -6124,10 +6127,10 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6199,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6216,10 +6219,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -6291,7 +6294,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -6308,10 +6311,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -7441,7 +7444,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7830,10 +7833,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7905,14 +7908,14 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" s="45">
         <v>100</v>
@@ -7924,10 +7927,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7999,7 +8002,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -8016,10 +8019,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8091,7 +8094,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8108,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8183,14 +8186,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -8202,10 +8205,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -9731,7 +9734,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10103,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -10120,10 +10123,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -10195,14 +10198,14 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" s="45">
         <v>100</v>
@@ -10214,10 +10217,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10289,7 +10292,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -10306,10 +10309,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -10381,7 +10384,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -10398,10 +10401,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -10473,14 +10476,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -10492,10 +10495,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -11667,7 +11670,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>600</v>
@@ -11677,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11693,8 +11696,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11773,7 +11776,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11782,7 +11785,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" s="45">
         <v>100</v>
@@ -11792,7 +11795,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11871,7 +11874,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11890,10 +11893,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11972,7 +11975,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11989,7 +11992,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12059,7 +12062,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2">
         <v>604</v>
@@ -12069,7 +12072,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -12086,7 +12089,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12166,7 +12169,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12183,7 +12186,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -13957,7 +13960,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>39</v>
@@ -13967,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -13983,8 +13986,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -14063,7 +14066,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -14082,10 +14085,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -14163,7 +14166,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14172,7 +14175,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" s="45">
         <v>100</v>
@@ -14181,8 +14184,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -14262,7 +14265,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14278,8 +14281,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14349,7 +14352,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2">
         <v>43</v>
@@ -14359,7 +14362,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -14375,8 +14378,8 @@
         <v>11</v>
       </c>
       <c r="N10" s="46"/>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -14456,7 +14459,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -14472,8 +14475,8 @@
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="O11" s="31">
-        <v>0</v>
+      <c r="O11" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14737,14 +14740,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L18" s="45">
         <v>100</v>
@@ -14756,10 +14759,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14831,14 +14834,14 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -14850,10 +14853,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14925,7 +14928,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14942,10 +14945,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15017,14 +15020,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L21" s="45">
         <v>20</v>
@@ -15036,10 +15039,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -16293,7 +16296,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16647,7 +16650,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17019,14 +17022,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L18" s="45">
         <v>100</v>
@@ -17038,10 +17041,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17113,14 +17116,14 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -17132,10 +17135,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17207,7 +17210,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17224,10 +17227,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -17299,14 +17302,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L21" s="45">
         <v>20</v>
@@ -17318,10 +17321,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -18429,7 +18432,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18575,7 +18578,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2">
         <v>616</v>
@@ -18585,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -18602,10 +18605,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -18683,7 +18686,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18700,7 +18703,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18779,7 +18782,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -18796,10 +18799,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -18878,7 +18881,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -18895,10 +18898,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -18967,7 +18970,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2">
         <v>620</v>
@@ -18977,7 +18980,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -18994,10 +18997,10 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -19076,7 +19079,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -19093,10 +19096,10 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -19166,6 +19169,33 @@
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1105</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7">
+        <v>50</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -19194,18 +19224,33 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>462</v>
-      </c>
-      <c r="G13" s="47" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A4 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+        <v>1106</v>
+      </c>
+      <c r="G13" s="47">
+        <v>4</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="47">
+        <v>2</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
+      <c r="L13" s="47">
+        <v>50</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -19229,13 +19274,34 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="D14" s="7">
+        <v>1107</v>
+      </c>
+      <c r="G14" s="48">
+        <v>4</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="48">
+        <v>2</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>10</v>
+      </c>
       <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="L14" s="48">
+        <v>50</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -19259,6 +19325,33 @@
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
+      <c r="D15" s="7">
+        <v>1108</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="7">
+        <v>50</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -19278,10 +19371,32 @@
       <c r="C16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EN leerlaag A5 (schooljaar 2022 - 2023)</v>
+      <c r="D16" s="2">
+        <v>1109</v>
+      </c>
+      <c r="G16" s="17">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="7">
+        <v>50</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -19299,41 +19414,41 @@
       <c r="AE16" s="7"/>
     </row>
     <row r="17" spans="1:32" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>49</v>
+      <c r="D17" s="7">
+        <v>1110</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
+      <c r="G17" s="19">
+        <v>4</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>52</v>
+        <v>111</v>
+      </c>
+      <c r="I17" s="19">
+        <v>2</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>55</v>
+      <c r="L17" s="19">
+        <v>50</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -19351,26 +19466,36 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1111</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="45"/>
+      <c r="G18" s="27">
+        <v>4</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="45">
+        <v>2</v>
+      </c>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="45">
+        <v>50</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -19421,7 +19546,7 @@
       </c>
       <c r="AD18" s="7">
         <f>IF(AND($P18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="7">
         <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
@@ -19429,30 +19554,40 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1112</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="45"/>
+      <c r="G19" s="27">
+        <v>4</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="45">
+        <v>2</v>
+      </c>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="45"/>
+      <c r="L19" s="45">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -19503,7 +19638,7 @@
       </c>
       <c r="AD19" s="7">
         <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="7">
         <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
@@ -19511,7 +19646,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -19867,7 +20002,7 @@
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EN leerlaag A5 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  4</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -20871,7 +21006,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2">
         <v>49</v>
@@ -20881,7 +21016,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -20897,8 +21032,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20977,7 +21112,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -20993,8 +21128,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21073,7 +21208,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -21089,8 +21224,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21170,7 +21305,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -21186,8 +21321,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21257,7 +21392,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.540960648</v>
+        <v>44378.451180556</v>
       </c>
       <c r="D10" s="2">
         <v>53</v>
@@ -21267,7 +21402,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -21281,8 +21416,8 @@
         <v>11</v>
       </c>
       <c r="N10" s="46"/>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21635,7 +21770,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -21652,7 +21787,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21725,7 +21860,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -21744,10 +21879,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21819,7 +21954,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21836,10 +21971,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21911,7 +22046,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -21920,7 +22055,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21" s="45">
         <v>100</v>
@@ -21932,10 +22067,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -22007,7 +22142,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -22026,10 +22161,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -22101,7 +22236,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -22118,10 +22253,10 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
